--- a/Excel/practice.xlsx
+++ b/Excel/practice.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\Infinite progress\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4BEEB0-0B0D-4B35-8687-683D17328E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76389314-72B6-4486-BD0F-1A36110399D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$2:$E$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,21 +51,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         姓名
- 科目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>销售额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=B10+B11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:文本一般在左侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：数值一般在右侧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分列功能：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>def</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -80,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -96,28 +132,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="1">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal style="thin">
-        <color rgb="FFFF0000"/>
-      </diagonal>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -133,61 +178,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>13138</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>361293</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="直接连接符 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E55E5594-1364-0220-BAA0-61556F51CAD5}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="696310" y="1668517"/>
-          <a:ext cx="670035" cy="348155"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -453,124 +443,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E10"/>
+  <dimension ref="B2:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2">
+        <f>C3*D3</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="4">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4">
+        <f>C4*D4</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
         <v>32</v>
       </c>
-      <c r="E3">
-        <f>C3*D3</f>
+      <c r="D5" s="2">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <f>C5*D5</f>
         <v>1024</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>123</v>
+      </c>
+      <c r="D6" s="2">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2">
+        <f>C6*D6</f>
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="4">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>424</v>
+      </c>
+      <c r="D7" s="4">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4">
+        <f>C7*D7</f>
+        <v>18656</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="C4" s="2">
-        <v>424</v>
-      </c>
-      <c r="D4">
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="8"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="6">
+        <v>123</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="6">
+        <v>456</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4">
-        <f>C4*D4</f>
-        <v>4664</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>123</v>
-      </c>
-      <c r="D5">
-        <v>22</v>
-      </c>
-      <c r="E5">
-        <f>C5*D5</f>
-        <v>2706</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>33</v>
-      </c>
-      <c r="E6">
-        <f>C6*D6</f>
-        <v>396</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2">
-        <v>32</v>
-      </c>
-      <c r="D7">
-        <v>44</v>
-      </c>
-      <c r="E7">
-        <f>C7*D7</f>
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8">
-        <f>AVERAGE(E3:E7)</f>
-        <v>2039.6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E9">
-        <f>COUNT(E3:E8)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:E2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17">
+    <sortCondition descending="1" ref="B16:B17"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>